--- a/documentation/Jules/3_1_Journal_Jules.xlsx
+++ b/documentation/Jules/3_1_Journal_Jules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/jules_crausaz_studentfr_ch/Documents/EMF/3eme/306/306-G3-SpeleoThink/documentation/Jules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ECCC685-3D68-40B7-A3FC-3530EEC3FF22}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDDC1E5E-E69E-48CE-9C07-9CB99A703B3D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t xml:space="preserve">Je trouve que j'ai bien réusssi a avancé le projet et à gérer mon role de Scrum Master. Le daily scrum à bien été effeectué et chacun a réussi à effectuer une tâche. J'ai bein réussi à commencé la documentation de projet ei aider à mettre en place la manette. </t>
+  </si>
+  <si>
+    <t>Réalisation de la documentation concernant les tâches effectuées durant le sprint 1</t>
   </si>
 </sst>
 </file>
@@ -478,6 +481,62 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -510,68 +569,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1211,9 +1214,9 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1226,85 +1229,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
+      <c r="A6" s="34">
         <v>45996</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1317,67 +1320,67 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
+      <c r="A13" s="14">
         <v>46003</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1389,46 +1392,52 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="26" t="s">
+    <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="14">
+        <v>46009</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1437,47 +1446,47 @@
       </c>
       <c r="D25" s="9">
         <f>SUM(D20:D24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1490,43 +1499,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="35"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
@@ -1539,43 +1548,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="32"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="29"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="31"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
@@ -1588,43 +1597,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="32"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="35"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="29"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="31"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="25"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="20"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
@@ -1637,43 +1646,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="32"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="35"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="23"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="29"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="31"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="18"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="25"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="20"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="25"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="20"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="25"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="25"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="20"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -1686,43 +1695,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="32"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="35"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="23"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="29"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="31"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="25"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="20"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="25"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="20"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="25"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="21"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="25"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="21"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>6</v>
       </c>
@@ -1735,43 +1744,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="28"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="26"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="29"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="31"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="18"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="25"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="20"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="25"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="20"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="25"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="20"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="25"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="20"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>6</v>
       </c>
@@ -1784,43 +1793,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="32"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="35"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="23"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="29"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="31"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="18"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="21"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="25"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="20"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="25"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="20"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="25"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="20"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="20"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
@@ -1833,10 +1842,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="32"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="35"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="23"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -1846,90 +1855,19 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -1941,6 +1879,77 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -2055,15 +2064,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -2276,6 +2276,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2288,14 +2297,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2314,6 +2315,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
   <ds:schemaRefs>

--- a/documentation/Jules/3_1_Journal_Jules.xlsx
+++ b/documentation/Jules/3_1_Journal_Jules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/jules_crausaz_studentfr_ch/Documents/EMF/3eme/306/306-G3-SpeleoThink/documentation/Jules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3893EE5C-7620-4349-AFAB-2CEBC95BC5EE}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF7F6283-C5D2-4653-91B6-31520A907E8D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -147,6 +147,21 @@
     <t>Pour cette demi-journée, je trouve que le groupe a très bien réussi à effectuer ce qu’il devait faire.
 De mon côté, j’ai pu réaliser une petite partie de la documentation. Celle-ci concerne l’explication des tâches qui ont été effectuées durant le sprint.
 Sinon, je trouve que je me suis bien organisé afin que tous les éléments soient présents lors du sprint review.</t>
+  </si>
+  <si>
+    <t>Correction de problèmes concernant la connexion de la manette sans fil</t>
+  </si>
+  <si>
+    <t>Réalisation des premiers diagrammes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avancement de la documentation </t>
+  </si>
+  <si>
+    <t>Réalisation de la maquette</t>
+  </si>
+  <si>
+    <t>Finalisation du sprint 1 et choix des tâches à effectuer durat le sprint 2</t>
   </si>
 </sst>
 </file>
@@ -492,6 +507,62 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -524,68 +595,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1225,9 +1240,9 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1240,85 +1255,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
+      <c r="A6" s="34">
         <v>45996</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1331,67 +1346,67 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
+      <c r="A13" s="14">
         <v>46003</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1404,59 +1419,59 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="26" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="29">
+      <c r="A20" s="14">
         <v>46009</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="31"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="24" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="24" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="25"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1469,45 +1484,67 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="26" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="7"/>
+      <c r="A27" s="14">
+        <v>46010</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="8"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="8"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="8"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="8"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1516,47 +1553,47 @@
       </c>
       <c r="D32" s="9">
         <f>SUM(D27:D31)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="35"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
@@ -1569,43 +1606,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="32"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="29"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="31"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
@@ -1618,43 +1655,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="32"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="35"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="29"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="31"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="25"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="20"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
@@ -1667,43 +1704,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="32"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="35"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="23"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="29"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="31"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="18"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="25"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="20"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="25"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="20"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="25"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="25"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="20"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -1716,43 +1753,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="32"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="35"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="23"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="29"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="31"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="25"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="20"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="25"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="20"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="25"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="21"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="25"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="21"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>6</v>
       </c>
@@ -1765,43 +1802,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="28"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="26"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="29"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="31"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="18"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="25"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="20"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="25"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="20"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="25"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="20"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="25"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="20"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>6</v>
       </c>
@@ -1814,43 +1851,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="32"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="35"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="23"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="29"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="31"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="18"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="21"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="25"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="20"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="25"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="20"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="25"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="20"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="20"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
@@ -1863,10 +1900,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="32"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="35"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="23"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -1876,90 +1913,19 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>13.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -1971,6 +1937,77 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -2085,15 +2122,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -2306,6 +2334,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2318,14 +2355,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2344,6 +2373,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
   <ds:schemaRefs>

--- a/documentation/Jules/3_1_Journal_Jules.xlsx
+++ b/documentation/Jules/3_1_Journal_Jules.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF7F6283-C5D2-4653-91B6-31520A907E8D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal_NOM_PRENOM2" sheetId="9" r:id="rId1"/>
@@ -507,100 +507,100 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1240,9 +1240,9 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26:I26"/>
+      <selection pane="bottomLeft" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1255,85 +1255,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34">
+      <c r="A6" s="20">
         <v>45996</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1346,67 +1346,67 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+      <c r="A13" s="29">
         <v>46003</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1419,59 +1419,59 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14">
+      <c r="A20" s="29">
         <v>46009</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="18"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="19" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="20"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1484,67 +1484,67 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="24" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14">
+      <c r="A27" s="29">
         <v>46010</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="19" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="20"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="19" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="19" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="20"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="19" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="20"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1557,43 +1557,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
@@ -1606,43 +1606,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="31"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="20"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="20"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
@@ -1655,43 +1655,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="23"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="35"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="31"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
@@ -1704,43 +1704,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="23"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="35"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="18"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="31"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="20"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="25"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -1753,43 +1753,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="16"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="23"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="35"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="18"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="31"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="20"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="25"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="20"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="2" t="s">
         <v>6</v>
       </c>
@@ -1802,43 +1802,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="26"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="28"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="18"/>
+      <c r="A69" s="29"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="31"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="20"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="20"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="20"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="20"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="2" t="s">
         <v>6</v>
       </c>
@@ -1851,43 +1851,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="16"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="23"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="35"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="18"/>
+      <c r="A76" s="29"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="31"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="20"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="25"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="20"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="25"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="20"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="25"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="20"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
@@ -1900,10 +1900,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="16"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="23"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="35"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -1917,15 +1917,86 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -1937,77 +2008,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -2122,6 +2122,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -2334,27 +2354,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
+    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2371,25 +2392,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/Jules/3_1_Journal_Jules.xlsx
+++ b/documentation/Jules/3_1_Journal_Jules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/jules_crausaz_studentfr_ch/Documents/EMF/3eme/306/306-G3-SpeleoThink/documentation/Jules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF7F6283-C5D2-4653-91B6-31520A907E8D}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5433B72-B460-4A8A-8C14-70D1E2B83D4D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal_NOM_PRENOM2" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Finalisation du sprint 1 et choix des tâches à effectuer durat le sprint 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour cette journée, je trouve que le groupe a très bien fonctionné. Chacun savait quoi faire et chacun a fait ce qu’il devait faire. Je trouve que j’ai bien réussi à aider les personnes de mon groupe quand il le fallait. Il n’y a pas eu de problème majeur durant cette journée, à part quelques problèmes avec le driver de la manette. </t>
   </si>
 </sst>
 </file>
@@ -507,6 +510,62 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -539,68 +598,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1242,7 +1245,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1255,85 +1258,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
+      <c r="A6" s="34">
         <v>45996</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1346,67 +1349,67 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
+      <c r="A13" s="14">
         <v>46003</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1419,59 +1422,59 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="26" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="29">
+      <c r="A20" s="14">
         <v>46009</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="31"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="24" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="24" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="25"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1484,67 +1487,67 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="26" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="29">
+      <c r="A27" s="14">
         <v>46010</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="31"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="24" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="25"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="24" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="25"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="24" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="24" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="25"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1556,44 +1559,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="35"/>
+    <row r="33" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16"/>
+      <c r="B33" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
@@ -1606,43 +1611,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="32"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="29"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="31"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
@@ -1655,43 +1660,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="32"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="35"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="29"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="31"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="25"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="20"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
@@ -1704,43 +1709,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="32"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="35"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="23"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="29"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="31"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="18"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="25"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="20"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="25"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="20"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="25"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="25"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="20"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -1753,43 +1758,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="32"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="35"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="23"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="29"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="31"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="25"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="20"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="25"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="20"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="25"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="21"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="25"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="21"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>6</v>
       </c>
@@ -1802,43 +1807,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="28"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="26"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="29"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="31"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="18"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="25"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="20"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="25"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="20"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="25"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="20"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="25"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="20"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>6</v>
       </c>
@@ -1851,43 +1856,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="32"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="35"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="23"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="29"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="31"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="18"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="21"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="25"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="20"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="25"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="20"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="25"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="20"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="20"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
@@ -1900,10 +1905,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="32"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="35"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="23"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -1917,86 +1922,15 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -2008,6 +1942,77 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -2122,6 +2127,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
@@ -2130,15 +2144,6 @@
     <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2355,6 +2360,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2363,14 +2376,6 @@
     <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
     <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
     <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documentation/Jules/3_1_Journal_Jules.xlsx
+++ b/documentation/Jules/3_1_Journal_Jules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/jules_crausaz_studentfr_ch/Documents/EMF/3eme/306/306-G3-SpeleoThink/documentation/Jules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5433B72-B460-4A8A-8C14-70D1E2B83D4D}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1462C0F-27BA-4D4C-AD8D-BD2FF18774DF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t xml:space="preserve">Pour cette journée, je trouve que le groupe a très bien fonctionné. Chacun savait quoi faire et chacun a fait ce qu’il devait faire. Je trouve que j’ai bien réussi à aider les personnes de mon groupe quand il le fallait. Il n’y a pas eu de problème majeur durant cette journée, à part quelques problèmes avec le driver de la manette. </t>
+  </si>
+  <si>
+    <t>Définition des tâches qui vont être effectuée dans le sprint 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je trouve que le groupe fonctionne très bien et la répartition des tâches se fait très bien. </t>
   </si>
 </sst>
 </file>
@@ -510,100 +516,100 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1243,9 +1249,9 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1258,85 +1264,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34">
+      <c r="A6" s="20">
         <v>45996</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1349,67 +1355,67 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+      <c r="A13" s="29">
         <v>46003</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1422,59 +1428,59 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14">
+      <c r="A20" s="29">
         <v>46009</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="18"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="19" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="20"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1487,67 +1493,67 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="24" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14">
+      <c r="A27" s="29">
         <v>46010</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="19" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="20"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="19" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="19" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="20"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="19" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="20"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1560,45 +1566,51 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="21" t="s">
+      <c r="A33" s="32"/>
+      <c r="B33" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="7"/>
+      <c r="A34" s="29">
+        <v>46030</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="31"/>
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
@@ -1607,47 +1619,49 @@
       </c>
       <c r="D39" s="9">
         <f>SUM(D34:D38)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="31"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="20"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="20"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
@@ -1660,43 +1674,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="23"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="35"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="31"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
@@ -1709,43 +1723,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="23"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="35"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="18"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="31"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="20"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="25"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -1758,43 +1772,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="16"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="23"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="35"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="18"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="31"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="20"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="25"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="20"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="2" t="s">
         <v>6</v>
       </c>
@@ -1807,43 +1821,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="26"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="28"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="18"/>
+      <c r="A69" s="29"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="31"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="20"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="20"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="20"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="20"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="2" t="s">
         <v>6</v>
       </c>
@@ -1856,43 +1870,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="16"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="23"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="35"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="18"/>
+      <c r="A76" s="29"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="31"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="20"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="25"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="20"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="25"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="20"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="25"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="20"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
@@ -1905,10 +1919,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="16"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="23"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="35"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -1918,19 +1932,90 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>20.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -1942,77 +2027,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -2127,15 +2141,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
@@ -2144,6 +2149,15 @@
     <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2360,14 +2374,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2376,6 +2382,14 @@
     <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
     <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
     <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documentation/Jules/3_1_Journal_Jules.xlsx
+++ b/documentation/Jules/3_1_Journal_Jules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/jules_crausaz_studentfr_ch/Documents/EMF/3eme/306/306-G3-SpeleoThink/documentation/Jules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FCD53C6-8A6F-4DBA-970D-0884F84E66C9}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55D4809C-688E-4BEF-A70E-2CD8CF65EEBA}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>Finaisation du websummary</t>
+  </si>
+  <si>
+    <t>Finalisation de la documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je trouve que le groupe à très bien fonctionné durant le projet car nous avons très bien résussi à nous répartir les difféntes tâches. </t>
   </si>
 </sst>
 </file>
@@ -534,100 +540,100 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1267,9 +1273,9 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+      <selection pane="bottomLeft" activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1282,85 +1288,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34">
+      <c r="A6" s="20">
         <v>45996</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1373,67 +1379,67 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+      <c r="A13" s="29">
         <v>46003</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1446,59 +1452,59 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14">
+      <c r="A20" s="29">
         <v>46009</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="18"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="19" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="20"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1511,67 +1517,67 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="24" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14">
+      <c r="A27" s="29">
         <v>46010</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="19" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="20"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="19" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="19" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="20"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="19" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="20"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1584,53 +1590,53 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="21" t="s">
+      <c r="A33" s="32"/>
+      <c r="B33" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14">
+      <c r="A34" s="29">
         <v>46030</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="18"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="19" t="s">
+      <c r="A35" s="21"/>
+      <c r="B35" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="20"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
@@ -1643,49 +1649,49 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="21" t="s">
+      <c r="A40" s="32"/>
+      <c r="B40" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14">
+      <c r="A41" s="29">
         <v>46031</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="18"/>
+      <c r="C41" s="31"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="20"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="20"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
@@ -1698,55 +1704,55 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
-      <c r="B47" s="21" t="s">
+      <c r="A47" s="32"/>
+      <c r="B47" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="23"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="35"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14">
+      <c r="A48" s="29">
         <v>15.012600000000001</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="18"/>
+      <c r="C48" s="31"/>
       <c r="D48" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="19" t="s">
+      <c r="A49" s="21"/>
+      <c r="B49" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="20"/>
+      <c r="C49" s="25"/>
       <c r="D49" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
@@ -1759,51 +1765,55 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
-      <c r="B54" s="21" t="s">
+      <c r="A54" s="32"/>
+      <c r="B54" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="23"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="35"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14">
+      <c r="A55" s="29">
         <v>46038</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="18"/>
+      <c r="C55" s="31"/>
       <c r="D55" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="8"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="25"/>
+      <c r="D56" s="8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="20"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="25"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -1812,47 +1822,49 @@
       </c>
       <c r="D60" s="9">
         <f>SUM(D55:D59)</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="16"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="23"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="34"/>
+      <c r="D61" s="35"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="18"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="31"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="20"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="25"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="20"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="2" t="s">
         <v>6</v>
       </c>
@@ -1865,43 +1877,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="26"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="28"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="18"/>
+      <c r="A69" s="29"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="31"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="20"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="20"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="20"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="20"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="2" t="s">
         <v>6</v>
       </c>
@@ -1914,43 +1926,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="16"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="23"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="35"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="18"/>
+      <c r="A76" s="29"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="31"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="20"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="25"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="20"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="25"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="20"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="25"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="20"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
@@ -1963,10 +1975,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="16"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="23"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="35"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -1976,19 +1988,90 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>28</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -2000,77 +2083,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -2185,6 +2197,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -2397,15 +2418,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2418,6 +2430,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2436,14 +2456,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
   <ds:schemaRefs>
